--- a/data/trans_orig/P14C21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47D7029D-FA01-432C-9571-FC9E53556CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70D10864-B163-46E5-9AA0-3BB45EE635E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{160E51BD-A257-4CEF-99CD-D6381D7C90DC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E627056-2EAB-4C64-A242-D1303DD281EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,46 +74,52 @@
     <t>73,01%</t>
   </si>
   <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>77,32%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>57,75%</t>
+    <t>57,67%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -143,55 +149,55 @@
     <t>68,44%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>71,66%</t>
   </si>
   <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
   </si>
   <si>
     <t>11,44%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>10,27%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -206,22 +212,19 @@
     <t>82,08%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
   </si>
   <si>
     <t>77,88%</t>
@@ -230,19 +233,19 @@
     <t>19,05%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>32,2%</t>
@@ -257,7 +260,7 @@
     <t>7,94%</t>
   </si>
   <si>
-    <t>24,77%</t>
+    <t>24,94%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -266,49 +269,49 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>60,75%</t>
+    <t>52,41%</t>
   </si>
   <si>
     <t>82,11%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>39,25%</t>
+    <t>47,59%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -326,58 +329,58 @@
     <t>61,34%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>46,94%</t>
+    <t>48,76%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>72,33%</t>
+    <t>68,71%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -386,7 +389,7 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>23,53%</t>
+    <t>24,57%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -404,19 +407,19 @@
     <t>86,9%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>8,56%</t>
@@ -428,19 +431,19 @@
     <t>9,55%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
   </si>
   <si>
     <t>18,94%</t>
@@ -452,97 +455,94 @@
     <t>3,55%</t>
   </si>
   <si>
-    <t>12,03%</t>
+    <t>10,87%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>7,38%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F5035-A515-4951-A2FD-57B02BAC0769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA8A9BC-0E84-40B3-B404-228789FF17BE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1135,10 +1135,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1147,13 +1147,13 @@
         <v>2005</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>3063</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1198,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1234,13 +1234,13 @@
         <v>3922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1249,13 +1249,13 @@
         <v>8621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1264,18 +1264,18 @@
         <v>12543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1290,10 +1290,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -1302,13 +1302,13 @@
         <v>25534</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -1317,13 +1317,13 @@
         <v>29780</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1353,13 +1353,13 @@
         <v>7508</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1368,19 +1368,19 @@
         <v>7508</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1389,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1404,13 +1404,13 @@
         <v>4269</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1419,13 +1419,13 @@
         <v>4269</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,13 +1440,13 @@
         <v>4246</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -1455,13 +1455,13 @@
         <v>37311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -1470,18 +1470,18 @@
         <v>41557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1493,13 +1493,13 @@
         <v>2866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1508,13 +1508,13 @@
         <v>16334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -1523,13 +1523,13 @@
         <v>19200</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,13 +1544,13 @@
         <v>1613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1559,13 +1559,13 @@
         <v>3845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1574,19 +1574,19 @@
         <v>5458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1595,13 +1595,13 @@
         <v>2127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>2127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,13 +1646,13 @@
         <v>6606</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>19</v>
@@ -1661,13 +1661,13 @@
         <v>20179</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -1676,18 +1676,18 @@
         <v>26785</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1699,10 +1699,10 @@
         <v>10187</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1714,13 +1714,13 @@
         <v>27627</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -1729,13 +1729,13 @@
         <v>37814</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1750,13 @@
         <v>1125</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1765,13 +1765,13 @@
         <v>6020</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1780,19 +1780,19 @@
         <v>7145</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1831,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1852,13 @@
         <v>11312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -1867,13 +1867,13 @@
         <v>33647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -1882,18 +1882,18 @@
         <v>44959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1905,13 +1905,13 @@
         <v>6598</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -1920,13 +1920,13 @@
         <v>27091</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -1935,13 +1935,13 @@
         <v>33688</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1956,13 @@
         <v>1175</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -1971,13 +1971,13 @@
         <v>4439</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1986,19 +1986,19 @@
         <v>5615</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -2007,13 +2007,13 @@
         <v>2983</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2037,13 +2037,13 @@
         <v>2983</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2058,13 @@
         <v>10756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -2073,13 +2073,13 @@
         <v>31530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -2088,18 +2088,18 @@
         <v>42286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2111,13 +2111,13 @@
         <v>7322</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -2126,13 +2126,13 @@
         <v>50233</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2141,13 +2141,13 @@
         <v>57555</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2162,13 @@
         <v>865</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2177,13 +2177,13 @@
         <v>5523</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2192,19 +2192,19 @@
         <v>6388</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -2213,13 +2213,13 @@
         <v>1913</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2228,13 +2228,13 @@
         <v>2052</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2243,13 +2243,13 @@
         <v>3964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2264,13 @@
         <v>10099</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>50</v>
@@ -2279,13 +2279,13 @@
         <v>57808</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
@@ -2294,13 +2294,13 @@
         <v>67907</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2317,13 @@
         <v>34081</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -2332,13 +2332,13 @@
         <v>153437</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>172</v>
@@ -2347,13 +2347,13 @@
         <v>187518</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2368,13 @@
         <v>5837</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2383,13 +2383,13 @@
         <v>29339</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -2398,19 +2398,19 @@
         <v>35176</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -2419,13 +2419,13 @@
         <v>7023</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2434,10 +2434,10 @@
         <v>6321</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>165</v>
@@ -2470,13 +2470,13 @@
         <v>46941</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>173</v>
@@ -2485,13 +2485,13 @@
         <v>189097</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
         <v>218</v>
@@ -2500,13 +2500,13 @@
         <v>236037</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14C21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C21-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70D10864-B163-46E5-9AA0-3BB45EE635E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72647450-3075-4E3F-8635-15EE5781AB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E627056-2EAB-4C64-A242-D1303DD281EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39F042DE-B905-4519-80D3-36D5999D8AAE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="170">
-  <si>
-    <t>Población según el tiempo de diagnóstico del migrañas en 2015 (Tasa respuesta: 3,32%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="169">
+  <si>
+    <t>Población según el tiempo de diagnóstico del migrañas en 2016 (Tasa respuesta: 3,32%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>22,68%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,16 +83,16 @@
     <t>76,74%</t>
   </si>
   <si>
-    <t>42,33%</t>
+    <t>42,57%</t>
   </si>
   <si>
     <t>75,58%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,25 +101,19 @@
     <t>26,99%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>57,67%</t>
+    <t>57,43%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -149,109 +143,112 @@
     <t>68,44%</t>
   </si>
   <si>
-    <t>51,11%</t>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
   </si>
   <si>
     <t>32,2%</t>
   </si>
   <si>
-    <t>83,53%</t>
+    <t>83,54%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -260,7 +257,7 @@
     <t>7,94%</t>
   </si>
   <si>
-    <t>24,94%</t>
+    <t>26,24%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -269,49 +266,49 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>52,41%</t>
+    <t>59,18%</t>
   </si>
   <si>
     <t>82,11%</t>
   </si>
   <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>9,95%</t>
   </si>
   <si>
-    <t>47,59%</t>
+    <t>40,82%</t>
   </si>
   <si>
     <t>17,89%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -329,43 +326,43 @@
     <t>61,34%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>79,67%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>48,76%</t>
+    <t>51,64%</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
   </si>
   <si>
     <t>13,28%</t>
@@ -374,13 +371,13 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>27,16%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>27,73%</t>
   </si>
   <si>
-    <t>68,71%</t>
+    <t>67,77%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -389,7 +386,7 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>24,57%</t>
+    <t>24,54%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -398,151 +395,151 @@
     <t>72,5%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>35,48%</t>
+    <t>35,93%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>47,14%</t>
+    <t>53,31%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>10,87%</t>
+    <t>12,62%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>79,44%</t>
   </si>
   <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -957,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA8A9BC-0E84-40B3-B404-228789FF17BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3E8838-E69E-4AD3-B028-1A8E58F8915E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1135,10 +1132,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1147,13 +1144,13 @@
         <v>2005</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -1162,19 +1159,19 @@
         <v>3063</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1183,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1198,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1213,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1234,13 +1231,13 @@
         <v>3922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1249,13 +1246,13 @@
         <v>8621</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -1264,18 +1261,18 @@
         <v>12543</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1290,10 +1287,10 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -1302,13 +1299,13 @@
         <v>25534</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -1317,13 +1314,13 @@
         <v>29780</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1353,13 +1350,13 @@
         <v>7508</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1368,19 +1365,19 @@
         <v>7508</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1389,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1404,13 +1401,13 @@
         <v>4269</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1419,13 +1416,13 @@
         <v>4269</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,13 +1437,13 @@
         <v>4246</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -1455,13 +1452,13 @@
         <v>37311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -1470,18 +1467,18 @@
         <v>41557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1493,13 +1490,13 @@
         <v>2866</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -1508,13 +1505,13 @@
         <v>16334</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -1523,13 +1520,13 @@
         <v>19200</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,13 +1541,13 @@
         <v>1613</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1559,13 +1556,13 @@
         <v>3845</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1574,19 +1571,19 @@
         <v>5458</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1595,13 +1592,13 @@
         <v>2127</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1610,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1625,13 +1622,13 @@
         <v>2127</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,13 +1643,13 @@
         <v>6606</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15" s="7">
         <v>19</v>
@@ -1661,13 +1658,13 @@
         <v>20179</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>25</v>
@@ -1676,18 +1673,18 @@
         <v>26785</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1699,10 +1696,10 @@
         <v>10187</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1714,13 +1711,13 @@
         <v>27627</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -1729,13 +1726,13 @@
         <v>37814</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1747,13 @@
         <v>1125</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1765,13 +1762,13 @@
         <v>6020</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1780,19 +1777,19 @@
         <v>7145</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1801,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1816,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1831,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1849,13 @@
         <v>11312</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -1867,13 +1864,13 @@
         <v>33647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -1882,18 +1879,18 @@
         <v>44959</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1905,13 +1902,13 @@
         <v>6598</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -1920,13 +1917,13 @@
         <v>27091</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -1935,13 +1932,13 @@
         <v>33688</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1953,13 @@
         <v>1175</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -1971,13 +1968,13 @@
         <v>4439</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1986,19 +1983,19 @@
         <v>5615</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
@@ -2007,13 +2004,13 @@
         <v>2983</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2022,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2037,13 +2034,13 @@
         <v>2983</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2055,13 @@
         <v>10756</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -2073,13 +2070,13 @@
         <v>31530</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -2088,18 +2085,18 @@
         <v>42286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2111,13 +2108,13 @@
         <v>7322</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -2126,13 +2123,13 @@
         <v>50233</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -2141,13 +2138,13 @@
         <v>57555</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2159,13 @@
         <v>865</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -2177,13 +2174,13 @@
         <v>5523</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2192,19 +2189,19 @@
         <v>6388</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -2213,13 +2210,13 @@
         <v>1913</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2228,13 +2225,13 @@
         <v>2052</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2243,13 +2240,13 @@
         <v>3964</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2261,13 @@
         <v>10099</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" s="7">
         <v>50</v>
@@ -2279,13 +2276,13 @@
         <v>57808</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M27" s="7">
         <v>61</v>
@@ -2294,13 +2291,13 @@
         <v>67907</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2314,13 @@
         <v>34081</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>138</v>
@@ -2332,13 +2329,13 @@
         <v>153437</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M28" s="7">
         <v>172</v>
@@ -2347,13 +2344,13 @@
         <v>187518</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2365,13 @@
         <v>5837</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -2383,13 +2380,13 @@
         <v>29339</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M29" s="7">
         <v>34</v>
@@ -2398,19 +2395,19 @@
         <v>35176</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>6</v>
@@ -2419,13 +2416,13 @@
         <v>7023</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -2434,13 +2431,13 @@
         <v>6321</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M30" s="7">
         <v>12</v>
@@ -2449,13 +2446,13 @@
         <v>13344</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2467,13 @@
         <v>46941</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H31" s="7">
         <v>173</v>
@@ -2485,13 +2482,13 @@
         <v>189097</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M31" s="7">
         <v>218</v>
@@ -2500,18 +2497,18 @@
         <v>236037</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
